--- a/output_frameLTC.xlsx
+++ b/output_frameLTC.xlsx
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>61.942974</v>
+        <v>36.25720800000001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -415,10 +415,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>62.097061</v>
+        <v>36.4254904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002487562189054771</v>
+        <v>0.004641350210970341</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -426,10 +426,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>69.63</v>
+        <v>41.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1240984328585837</v>
+        <v>0.1514951730425573</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -437,10 +437,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>70.071</v>
+        <v>41.919</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1312178843721645</v>
+        <v>0.1561563151801426</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -448,10 +448,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>70.3398</v>
+        <v>42.11715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1355573595804425</v>
+        <v>0.161621435384655</v>
       </c>
     </row>
   </sheetData>
